--- a/timestamp_calcr.xlsx
+++ b/timestamp_calcr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TV Shows &amp; Movies\Movies\Lord of the Rings &amp; The Hobbit\The Lord of the Rings 1 The Fellowship of the Ring (2001) [tmdbid-120]\subtitlework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C697790-2A09-4F93-8857-B49B3A766D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F398CE2-4BF0-4412-BFDC-5C89C6A762DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="2700" windowWidth="20460" windowHeight="10890" xr2:uid="{30823A28-3283-441A-B742-EF7E4BDCD55A}"/>
+    <workbookView xWindow="11040" yWindow="3360" windowWidth="18105" windowHeight="8940" xr2:uid="{30823A28-3283-441A-B742-EF7E4BDCD55A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Time Ref 1</t>
   </si>
@@ -63,14 +63,31 @@
   </si>
   <si>
     <t>Difference 2-1</t>
+  </si>
+  <si>
+    <t>Time to Adjust</t>
+  </si>
+  <si>
+    <t>Time Adjusted Diff 1-2</t>
+  </si>
+  <si>
+    <t>Time Adjusted Diff 2-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2295FEF6-3352-4312-B0DA-C28428CB9168}">
-  <dimension ref="C2:J8"/>
+  <dimension ref="C2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D13:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
@@ -534,6 +552,83 @@
         <v>6336.3980000000001</v>
       </c>
     </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>486</v>
+      </c>
+      <c r="J11">
+        <f>G11/1000+F11+E11*60+D11*3600</f>
+        <v>10954.486000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <f>INT(ABS(J13/3600))*SIGN(J13)</f>
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <f>INT(ABS((ABS(J13)-INT(ABS(J13/3600))*3600)/60))*SIGN(J13)</f>
+        <v>48</v>
+      </c>
+      <c r="F13" s="1">
+        <f>INT(ABS(ABS(J13)-INT(ABS((ABS(J13)-INT(ABS(J13/3600))*3600)/60))*60)-INT(ABS(J13/3600))*3600)*SIGN(J13)</f>
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <f>(ABS(J13)-INT(ABS(J13)))*1000*SIGN(J13)</f>
+        <v>884.00000000183354</v>
+      </c>
+      <c r="J13">
+        <f>J11-J6</f>
+        <v>17290.884000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <f>INT(ABS(J15/3600))*SIGN(J15)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <f>INT(ABS((ABS(J15)-INT(ABS(J15/3600))*3600)/60))*SIGN(J15)</f>
+        <v>16</v>
+      </c>
+      <c r="F15" s="1">
+        <f>INT(ABS(ABS(J15)-INT(ABS((ABS(J15)-INT(ABS(J15/3600))*3600)/60))*60)-INT(ABS(J15/3600))*3600)*SIGN(J15)</f>
+        <v>58</v>
+      </c>
+      <c r="G15" s="1">
+        <f>(ABS(J15)-INT(ABS(J15)))*1000*SIGN(J15)</f>
+        <v>88.00000000064756</v>
+      </c>
+      <c r="J15">
+        <f>J11-J8</f>
+        <v>4618.0880000000006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
